--- a/calls/calls.xlsx
+++ b/calls/calls.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B462C44-83ED-4C0D-9502-3887FBE7F19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89032521-9F0D-425D-89D4-38309DEE2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D89D96EC-EA87-4027-8A50-59DCA4129EE3}"/>
+    <workbookView xWindow="-7020" yWindow="4725" windowWidth="15330" windowHeight="10890" xr2:uid="{D89D96EC-EA87-4027-8A50-59DCA4129EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="177">
   <si>
     <t>MP-S1</t>
   </si>
@@ -44,12 +44,6 @@
     <t>CD-P2</t>
   </si>
   <si>
-    <t>MP-S2</t>
-  </si>
-  <si>
-    <t>CD-C2</t>
-  </si>
-  <si>
     <t>CD-P1</t>
   </si>
   <si>
@@ -168,12 +162,9 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AI-E1 </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -182,18 +173,9 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 9:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>과정</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -204,35 +186,9 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>담임</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>학생이름</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -245,32 +201,7 @@
       </rPr>
       <t>전화번호</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다음과정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전준표</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -750,31 +681,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 11:20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -784,7 +690,7 @@
       </rPr>
       <t>비고</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,6 +701,151 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>화</t>
     </r>
     <r>
@@ -804,141 +855,117 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케줄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상수업으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대체</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -951,353 +978,6 @@
       </rPr>
       <t>시간</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 7:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MP-S2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 4:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AL-TH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 4:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 6:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홍콩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출국</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스케줄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영상수업으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대체</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-U1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 9:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1317,77 +997,7 @@
       </rPr>
       <t>변동</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분기말</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퇴원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>높음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1572,7 +1182,7 @@
       </rPr>
       <t>문의하셨음</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1719,51 +1329,7 @@
       </rPr>
       <t>가능</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 11:20 + AI-E1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 9:30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2024,7 +1590,7 @@
       </rPr>
       <t>진행</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2208,20 +1774,7 @@
       </rPr>
       <t>있음</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미정</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2492,20 +2045,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특강</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2575,7 +2115,7 @@
       </rPr>
       <t>편</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2683,7 +2223,7 @@
       </rPr>
       <t>명</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2753,7 +2293,7 @@
       </rPr>
       <t>주범</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2880,7 +2420,7 @@
       </rPr>
       <t>도움</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2997,7 +2537,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3105,7 +2645,7 @@
       </rPr>
       <t>나쁨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3203,7 +2743,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3358,7 +2898,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3456,7 +2996,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3573,7 +3113,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3690,7 +3230,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3826,7 +3366,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4038,7 +3578,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4250,7 +3790,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4348,7 +3888,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4465,7 +4005,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4582,7 +4122,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4718,7 +4258,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4819,7 +4359,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4955,7 +4495,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5072,7 +4612,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5189,7 +4729,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5325,7 +4865,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5341,11 +4881,11 @@
       </rPr>
       <t>주차</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5367,11 +4907,11 @@
       </rPr>
       <t xml:space="preserve"> X</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5393,32 +4933,7 @@
       </rPr>
       <t xml:space="preserve"> O </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 7:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5535,7 +5050,7 @@
       </rPr>
       <t xml:space="preserve"> (9/26)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5586,7 +5101,7 @@
       </rPr>
       <t>가능</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5618,7 +5133,7 @@
       </rPr>
       <t>가능</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5672,59 +5187,7 @@
       </rPr>
       <t>가능</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CD-P2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3:00 / CF-IP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 3:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴원위험/전반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5918,11 +5381,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6183,129 +5642,625 @@
       </rPr>
       <t>작성</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3008-2840</t>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타자대회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증정해야함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부재</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플친</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> X, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>올림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케줄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이슈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있었음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하려고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>했으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋겠음</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피곤해함</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윤지후</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분기로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CD-P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3008-2840</t>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주차부터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타자대회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>증정해야함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4112-8813</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X / X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교재</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서정원</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신규</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-S2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영과고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6313,198 +6268,10 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
-      </rPr>
-      <t>리포트</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부재</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플친</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> X, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>올림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> X</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스케줄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이슈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>번</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있었음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하려고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>했으면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋겠음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피곤해함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -6515,122 +6282,136 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전준표</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>월</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>윤지후</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD-P1 ???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분기로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주차부터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5593-0801</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL-TH1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-U1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI-E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박호배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8973-5491</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12주 리포트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6687,15 +6468,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <name val="Consolas"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -6732,7 +6513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -6762,6 +6543,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -6770,9 +6575,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -6785,108 +6601,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7202,1258 +7063,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="9" style="42"/>
+    <col min="4" max="4" width="25.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="21"/>
+    <col min="9" max="9" width="20.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="39" customFormat="1" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="40" customFormat="1" ht="16.5">
+      <c r="A3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1">
+      <c r="A4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="41" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="40" customFormat="1">
+      <c r="A6" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="45">
+      <c r="A7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="45">
+      <c r="A8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="16.5">
+      <c r="A9" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="40" customFormat="1" ht="16.5">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="40" customFormat="1" ht="16.5">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="40" customFormat="1" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="15" customFormat="1" ht="16.5">
+      <c r="A19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" ht="16.5">
+      <c r="A20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="15" customFormat="1" ht="16.5">
+      <c r="A21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" ht="30">
+      <c r="A22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="41" customFormat="1" ht="16.5">
+      <c r="A27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="41" customFormat="1" ht="16.5">
+      <c r="A28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" s="41" customFormat="1" ht="16.5">
+      <c r="A29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="41" customFormat="1" ht="30">
+      <c r="A34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="41" customFormat="1" ht="30">
+      <c r="A35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" s="41" customFormat="1" ht="16.5">
+      <c r="A37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="40" customFormat="1" ht="30">
+      <c r="A39" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A40" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" s="41" customFormat="1" ht="45">
+      <c r="A41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="G41" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="11"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="30">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>167</v>
-      </c>
+    <row r="42" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="17"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>43</v>
-      </c>
+    <row r="43" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="17"/>
     </row>
-    <row r="4" spans="1:11" s="24" customFormat="1" ht="16.5">
-      <c r="A4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="24" t="s">
+    <row r="44" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A44" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>150</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" s="18" customFormat="1" ht="16.5">
-      <c r="A5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="17" t="s">
+    <row r="45" spans="1:9" s="7" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>145</v>
       </c>
+      <c r="D45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="24" customFormat="1" ht="45">
-      <c r="A6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>159</v>
+    <row r="48" spans="1:9">
+      <c r="A48" s="41"/>
+      <c r="G48" s="6">
+        <f>COUNTIF(G2:G45, "=O")</f>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="24" customFormat="1" ht="45">
-      <c r="A7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>43</v>
-      </c>
+    <row r="49" spans="1:1">
+      <c r="A49" s="39"/>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5">
-      <c r="A8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>43</v>
-      </c>
+    <row r="50" spans="1:1">
+      <c r="A50" s="43"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="16.5">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="16.5">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="16.5">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="16.5">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="16.5">
-      <c r="A19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="30">
-      <c r="A20" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="16.5">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" ht="16.5">
-      <c r="A26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" ht="16.5">
-      <c r="A27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5">
-      <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="A31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="A32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" ht="16.5">
-      <c r="A33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="18" customFormat="1" ht="16.5">
-      <c r="A34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="45">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="28" customFormat="1" ht="30">
-      <c r="A36" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="28" customFormat="1" ht="16.5">
-      <c r="A37" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="18" customFormat="1" ht="45">
-      <c r="A38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="28" customFormat="1" ht="16.5">
-      <c r="A39" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="28" customFormat="1" ht="16.5">
-      <c r="A40" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="28" customFormat="1" ht="16.5">
-      <c r="A41" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="29" customFormat="1" ht="16.5">
-      <c r="A42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2">
-        <f>COUNTA(A2:A41)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="8"/>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I43" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:J46" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/calls/calls.xlsx
+++ b/calls/calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F9866-D727-4825-B655-B2C66C494A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86945CD4-4F17-441A-A018-7298FAFAF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D89D96EC-EA87-4027-8A50-59DCA4129EE3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
   <si>
     <t>CD-P2</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X / X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,19 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퇴원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴원/불확실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,10 +281,6 @@
   </si>
   <si>
     <t>이호연</t>
-  </si>
-  <si>
-    <t>하려고 했으면 좋겠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화1</t>
@@ -591,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코딩에 관심 많아 알맞은 대회 추천 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우수한 학생 친구, 부모님끼리도 친하심</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,6 +626,90 @@
   </si>
   <si>
     <t>CD-P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9358-7507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 4분기 신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴원 위험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩에 관심 많아 알맞은 대회 추천 요청
+SW영재원 특강 수강중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하려고 했으면 좋겠음
+수업 중에 많이 봐주기
+수업 후에 10분정도 봐주면 좋을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누나 교재
+ 공유중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-S2 영상보강이 많았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,19 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,77 +909,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,74 +977,59 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1328,926 +1349,1043 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="49.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="D15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I15" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="G27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="E40" s="1">
+        <f>COUNTA(E2:E37)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1">
+        <f>COUNTA(C2:C37)</f>
         <v>36</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="1">
-        <f>COUNTA(C2:C36)</f>
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I36" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
+  <autoFilter ref="A1:I37" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/calls/calls.xlsx
+++ b/calls/calls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dccub\OneDrive\바탕 화면\C3Cube-Github\calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86945CD4-4F17-441A-A018-7298FAFAF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9682A7A1-9A20-48A2-A6BA-CE68593DE67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D89D96EC-EA87-4027-8A50-59DCA4129EE3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
   <si>
     <t>CD-P2</t>
   </si>
@@ -633,18 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플친</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,10 +654,6 @@
   </si>
   <si>
     <t>2022 4분기 신규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴원 위험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,15 +676,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통화중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -710,6 +686,78 @@
   </si>
   <si>
     <t>MP-S2 영상보강이 많았음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5260-8143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 4분기 신규 (복귀생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 다시 바뀔 수도 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반/휴원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD-P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 4분기 신규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP 등록 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 통해서 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +913,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -922,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1084,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1349,11 +1427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+      <selection pane="topRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1432,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>125</v>
@@ -1490,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>32</v>
@@ -1519,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="25" t="s">
@@ -1548,10 +1626,12 @@
       <c r="E7" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>164</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>146</v>
@@ -1571,10 +1651,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="23" t="s">
@@ -1598,11 +1678,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>147</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>164</v>
+      </c>
       <c r="G9" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>71</v>
@@ -1648,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>74</v>
@@ -1677,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>32</v>
@@ -1706,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="23" t="s">
@@ -1733,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>32</v>
@@ -1760,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="23" t="s">
@@ -1787,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>30</v>
@@ -1814,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>30</v>
@@ -1843,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>30</v>
@@ -1871,7 +1953,9 @@
       <c r="D19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="F19" s="26" t="s">
         <v>30</v>
       </c>
@@ -1886,26 +1970,32 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>146</v>
+      <c r="A20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1916,16 +2006,20 @@
         <v>33</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="G21" s="31"/>
       <c r="H21" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>146</v>
@@ -1936,21 +2030,23 @@
         <v>88</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>164</v>
+      </c>
       <c r="F22" s="31" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>146</v>
@@ -1958,75 +2054,85 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="31"/>
       <c r="H23" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
+      <c r="E25" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
-        <v>123</v>
+      <c r="I25" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2037,78 +2143,74 @@
         <v>48</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="E28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2117,79 +2219,81 @@
         <v>114</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="H29" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D31" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
+      <c r="E31" s="37"/>
+      <c r="F31" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="16" t="s">
+      <c r="G31" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2201,20 +2305,20 @@
         <v>33</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>123</v>
@@ -2228,105 +2332,101 @@
         <v>33</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="16" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H36" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>107</v>
       </c>
@@ -2334,10 +2434,10 @@
         <v>145</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>146</v>
@@ -2346,46 +2446,104 @@
         <v>146</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="E40" s="1">
-        <f>COUNTA(E2:E37)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41"/>
+    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42"/>
-      <c r="B42"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="1">
+        <f>COUNTA(E2:E39)</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
     </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="1">
-        <f>COUNTA(C2:C37)</f>
-        <v>36</v>
+      <c r="B47" s="1">
+        <f>COUNTA(C2:C39)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I37" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
+  <autoFilter ref="A1:I39" xr:uid="{E79C86A7-F75E-4FDF-9439-DD28BC6568F8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
